--- a/Nhsbt.LD.AutomationTests/Data.xlsx
+++ b/Nhsbt.LD.AutomationTests/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy0009\source\Repos\Living.Donation.Test.Automation\Nhsbt.LD.AutomationTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gord0019\source\repos\Nhsbt.LD.AutomationTests\Nhsbt.LD.AutomationTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A528471-5DB6-461F-9257-237563972AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE2503-C40C-422F-A277-62D8016A4947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Value1</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>enter7</t>
+  </si>
+  <si>
+    <t>enter8</t>
+  </si>
+  <si>
+    <t>enter9</t>
+  </si>
+  <si>
+    <t>enter10</t>
+  </si>
+  <si>
+    <t>enter11</t>
+  </si>
+  <si>
+    <t>enter12</t>
   </si>
 </sst>
 </file>
@@ -381,54 +396,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
